--- a/outtttt.xlsx
+++ b/outtttt.xlsx
@@ -1,37 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOT_Prime\CIB_DELTA_back\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15852" windowHeight="6816"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+  <si>
+    <t>CBS Account Name</t>
+  </si>
+  <si>
+    <t>CBS Clientstatus</t>
+  </si>
+  <si>
+    <t>CBS Current Status</t>
+  </si>
+  <si>
+    <t>CBS Customer Id</t>
+  </si>
+  <si>
+    <t>CBS Date of birth</t>
+  </si>
+  <si>
+    <t>CBS Father name</t>
+  </si>
+  <si>
+    <t>CBS Result of Cib Screening</t>
+  </si>
+  <si>
+    <t>CBS account Number</t>
+  </si>
+  <si>
+    <t>CBS branchcode</t>
+  </si>
+  <si>
+    <t>CBS citizenship</t>
+  </si>
+  <si>
+    <t>CBS dlicenceidno</t>
+  </si>
+  <si>
+    <t>CBS indianembassyregno</t>
+  </si>
+  <si>
+    <t>CBS pannumber</t>
+  </si>
+  <si>
+    <t>CBS passportno</t>
+  </si>
+  <si>
+    <t>CBS regnum</t>
+  </si>
+  <si>
+    <t>CIB Blacklisted date</t>
+  </si>
+  <si>
+    <t>CIB Blacklisted no</t>
+  </si>
+  <si>
+    <t>Cib father name</t>
+  </si>
+  <si>
+    <t>Cib name</t>
+  </si>
+  <si>
+    <t>cib citizenship no</t>
+  </si>
+  <si>
+    <t>cib dob</t>
+  </si>
+  <si>
+    <t>cib gender</t>
+  </si>
+  <si>
+    <t>citizenship_percent</t>
+  </si>
+  <si>
+    <t>name_percent</t>
+  </si>
+  <si>
+    <t>nepdate_percent</t>
+  </si>
+  <si>
+    <t>similarity</t>
+  </si>
+  <si>
+    <t>Sabin Lamichhanne</t>
+  </si>
+  <si>
+    <t>debit restrict</t>
+  </si>
+  <si>
+    <t>2056</t>
+  </si>
+  <si>
+    <t>kabin lamichhane</t>
+  </si>
+  <si>
+    <t>09877654</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>sabin lamichhane</t>
+  </si>
+  <si>
+    <t>948474664</t>
+  </si>
+  <si>
+    <t>2056-04-07</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>Matched Find in CIB Black List</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +173,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,234 +497,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CBS Account Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CBS Clientstatus</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CBS Current Status</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CBS Customer Id</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CBS Date of birth</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CBS Father name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CBS Result of Cib Screening</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CBS account Number</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CBS branchcode</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CBS citizenship</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CBS dlicenceidno</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>CBS indianembassyregno</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CBS pannumber</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>CBS passportno</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>CBS regnum</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>CIB Blacklisted date</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>CIB Blacklisted no</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Cib father name</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Cib name</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>cib citizenship no</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>cib dob</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>cib gender</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>citizenship_percent</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>name_percent</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>nepdate_percent</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>similarity</t>
-        </is>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sabin Lamichhanne</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>debit restrict</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2056</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>kabin lamichhane</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>09877654</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>kabin lamichhane</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>sabin lamichhane</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>948474664</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2056-04-07</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="O2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
       <formula1>"Matched Find in CIB Black List,Not matched Black List in CIB"</formula1>
     </dataValidation>
   </dataValidations>
